--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.02551633333333</v>
+        <v>22.82060766666666</v>
       </c>
       <c r="H2">
-        <v>66.076549</v>
+        <v>68.461823</v>
       </c>
       <c r="I2">
-        <v>0.1074664165847192</v>
+        <v>0.10869226337084</v>
       </c>
       <c r="J2">
-        <v>0.1074664165847192</v>
+        <v>0.1086922633708401</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N2">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q2">
-        <v>61.15085797111745</v>
+        <v>58.06563654389644</v>
       </c>
       <c r="R2">
-        <v>550.3577217400571</v>
+        <v>522.590728895068</v>
       </c>
       <c r="S2">
-        <v>0.02371057383786295</v>
+        <v>0.02188250255331648</v>
       </c>
       <c r="T2">
-        <v>0.02371057383786295</v>
+        <v>0.02188250255331649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.02551633333333</v>
+        <v>22.82060766666666</v>
       </c>
       <c r="H3">
-        <v>66.076549</v>
+        <v>68.461823</v>
       </c>
       <c r="I3">
-        <v>0.1074664165847192</v>
+        <v>0.10869226337084</v>
       </c>
       <c r="J3">
-        <v>0.1074664165847192</v>
+        <v>0.1086922633708401</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P3">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q3">
-        <v>194.0057109470137</v>
+        <v>201.0090545715942</v>
       </c>
       <c r="R3">
-        <v>1746.051398523124</v>
+        <v>1809.081491144348</v>
       </c>
       <c r="S3">
-        <v>0.07522358454151071</v>
+        <v>0.0757518803152602</v>
       </c>
       <c r="T3">
-        <v>0.07522358454151069</v>
+        <v>0.07575188031526021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.02551633333333</v>
+        <v>22.82060766666666</v>
       </c>
       <c r="H4">
-        <v>66.076549</v>
+        <v>68.461823</v>
       </c>
       <c r="I4">
-        <v>0.1074664165847192</v>
+        <v>0.10869226337084</v>
       </c>
       <c r="J4">
-        <v>0.1074664165847192</v>
+        <v>0.1086922633708401</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N4">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="O4">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P4">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q4">
-        <v>0.06697959516966667</v>
+        <v>29.07154484315856</v>
       </c>
       <c r="R4">
-        <v>0.6028163565270001</v>
+        <v>261.643903588427</v>
       </c>
       <c r="S4">
-        <v>2.597060269621479E-05</v>
+        <v>0.01095584569676334</v>
       </c>
       <c r="T4">
-        <v>2.597060269621479E-05</v>
+        <v>0.01095584569676334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.02551633333333</v>
+        <v>22.82060766666666</v>
       </c>
       <c r="H5">
-        <v>66.076549</v>
+        <v>68.461823</v>
       </c>
       <c r="I5">
-        <v>0.1074664165847192</v>
+        <v>0.10869226337084</v>
       </c>
       <c r="J5">
-        <v>0.1074664165847192</v>
+        <v>0.1086922633708401</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N5">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="O5">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P5">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q5">
-        <v>21.85166159107556</v>
+        <v>0.2707512962265555</v>
       </c>
       <c r="R5">
-        <v>196.66495431968</v>
+        <v>2.436761666039</v>
       </c>
       <c r="S5">
-        <v>0.008472741884993753</v>
+        <v>0.0001020348055000204</v>
       </c>
       <c r="T5">
-        <v>0.008472741884993753</v>
+        <v>0.0001020348055000204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.02551633333333</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H6">
-        <v>66.076549</v>
+        <v>507.673492</v>
       </c>
       <c r="I6">
-        <v>0.1074664165847192</v>
+        <v>0.8059992924649123</v>
       </c>
       <c r="J6">
-        <v>0.1074664165847192</v>
+        <v>0.8059992924649124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003928</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N6">
-        <v>0.011784</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q6">
-        <v>0.08651622815733333</v>
+        <v>430.5813543621636</v>
       </c>
       <c r="R6">
-        <v>0.778646053416</v>
+        <v>3875.232189259472</v>
       </c>
       <c r="S6">
-        <v>3.354571765561713E-05</v>
+        <v>0.1622680495221563</v>
       </c>
       <c r="T6">
-        <v>3.354571765561713E-05</v>
+        <v>0.1622680495221563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>507.673492</v>
       </c>
       <c r="I7">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649123</v>
       </c>
       <c r="J7">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649124</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.776364333333333</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N7">
-        <v>8.329093</v>
+        <v>26.424676</v>
       </c>
       <c r="O7">
-        <v>0.2206324039768381</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P7">
-        <v>0.2206324039768381</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q7">
-        <v>469.8288587225285</v>
+        <v>1490.567504432066</v>
       </c>
       <c r="R7">
-        <v>4228.459728502757</v>
+        <v>13415.10753988859</v>
       </c>
       <c r="S7">
-        <v>0.1821709819862373</v>
+        <v>0.5617323629435665</v>
       </c>
       <c r="T7">
-        <v>0.1821709819862373</v>
+        <v>0.5617323629435668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>507.673492</v>
       </c>
       <c r="I8">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649123</v>
       </c>
       <c r="J8">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.808225333333333</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N8">
-        <v>26.424676</v>
+        <v>3.821749</v>
       </c>
       <c r="O8">
-        <v>0.6999729490580858</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P8">
-        <v>0.6999729490580857</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q8">
-        <v>1490.567504432066</v>
+        <v>215.5778511530565</v>
       </c>
       <c r="R8">
-        <v>13415.10753988859</v>
+        <v>1940.200660377508</v>
       </c>
       <c r="S8">
-        <v>0.5779511857519369</v>
+        <v>0.08124224858413449</v>
       </c>
       <c r="T8">
-        <v>0.5779511857519368</v>
+        <v>0.08124224858413452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>507.673492</v>
       </c>
       <c r="I9">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649123</v>
       </c>
       <c r="J9">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649124</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.003041</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N9">
-        <v>0.009123000000000001</v>
+        <v>0.035593</v>
       </c>
       <c r="O9">
-        <v>0.0002416624981232284</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P9">
-        <v>0.0002416624981232283</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q9">
-        <v>0.5146116963906667</v>
+        <v>2.007735844528444</v>
       </c>
       <c r="R9">
-        <v>4.631505267516</v>
+        <v>18.069622600756</v>
       </c>
       <c r="S9">
-        <v>0.0001995350356467917</v>
+        <v>0.0007566314150550176</v>
       </c>
       <c r="T9">
-        <v>0.0001995350356467917</v>
+        <v>0.0007566314150550179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>169.2244973333333</v>
+        <v>4.587340666666667</v>
       </c>
       <c r="H10">
-        <v>507.673492</v>
+        <v>13.762022</v>
       </c>
       <c r="I10">
-        <v>0.825676458682658</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="J10">
-        <v>0.825676458682658</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9921066666666668</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N10">
-        <v>2.97632</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O10">
-        <v>0.0788408337623728</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P10">
-        <v>0.07884083376237279</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q10">
-        <v>167.8887519677156</v>
+        <v>11.67220696943911</v>
       </c>
       <c r="R10">
-        <v>1510.99876770944</v>
+        <v>105.049862724952</v>
       </c>
       <c r="S10">
-        <v>0.06509702042050412</v>
+        <v>0.004398765156367479</v>
       </c>
       <c r="T10">
-        <v>0.06509702042050411</v>
+        <v>0.00439876515636748</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>169.2244973333333</v>
+        <v>4.587340666666667</v>
       </c>
       <c r="H11">
-        <v>507.673492</v>
+        <v>13.762022</v>
       </c>
       <c r="I11">
-        <v>0.825676458682658</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="J11">
-        <v>0.825676458682658</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.003928</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N11">
-        <v>0.011784</v>
+        <v>26.424676</v>
       </c>
       <c r="O11">
-        <v>0.0003121507045800858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P11">
-        <v>0.0003121507045800858</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q11">
-        <v>0.6647138255253334</v>
+        <v>40.40633027276355</v>
       </c>
       <c r="R11">
-        <v>5.982424429728001</v>
+        <v>363.6569724548719</v>
       </c>
       <c r="S11">
-        <v>0.0002577354883329818</v>
+        <v>0.01522745082963943</v>
       </c>
       <c r="T11">
-        <v>0.0002577354883329818</v>
+        <v>0.01522745082963944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.273094333333334</v>
+        <v>4.587340666666667</v>
       </c>
       <c r="H12">
-        <v>15.819283</v>
+        <v>13.762022</v>
       </c>
       <c r="I12">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="J12">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.776364333333333</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N12">
-        <v>8.329093</v>
+        <v>3.821749</v>
       </c>
       <c r="O12">
-        <v>0.2206324039768381</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P12">
-        <v>0.2206324039768381</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q12">
-        <v>14.64003103336878</v>
+        <v>5.84388820183089</v>
       </c>
       <c r="R12">
-        <v>131.760279300319</v>
+        <v>52.594993816478</v>
       </c>
       <c r="S12">
-        <v>0.005676511308627062</v>
+        <v>0.00220231631149323</v>
       </c>
       <c r="T12">
-        <v>0.005676511308627062</v>
+        <v>0.00220231631149323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.273094333333334</v>
+        <v>4.587340666666667</v>
       </c>
       <c r="H13">
-        <v>15.819283</v>
+        <v>13.762022</v>
       </c>
       <c r="I13">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="J13">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>8.808225333333333</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N13">
-        <v>26.424676</v>
+        <v>0.035593</v>
       </c>
       <c r="O13">
-        <v>0.6999729490580858</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P13">
-        <v>0.6999729490580857</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q13">
-        <v>46.44660309192311</v>
+        <v>0.05442573878288889</v>
       </c>
       <c r="R13">
-        <v>418.019427827308</v>
+        <v>0.489831649046</v>
       </c>
       <c r="S13">
-        <v>0.01800916043809405</v>
+        <v>2.051077778131911E-05</v>
       </c>
       <c r="T13">
-        <v>0.01800916043809405</v>
+        <v>2.051077778131911E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.273094333333334</v>
+        <v>4.896139</v>
       </c>
       <c r="H14">
-        <v>15.819283</v>
+        <v>14.688417</v>
       </c>
       <c r="I14">
-        <v>0.02572836630662366</v>
+        <v>0.02331981853689061</v>
       </c>
       <c r="J14">
-        <v>0.02572836630662366</v>
+        <v>0.02331981853689062</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.003041</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N14">
-        <v>0.009123000000000001</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O14">
-        <v>0.0002416624981232284</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P14">
-        <v>0.0002416624981232283</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q14">
-        <v>0.01603547986766667</v>
+        <v>12.45792538897467</v>
       </c>
       <c r="R14">
-        <v>0.144319318809</v>
+        <v>112.121328500772</v>
       </c>
       <c r="S14">
-        <v>6.217581274288171E-06</v>
+        <v>0.004694869467713083</v>
       </c>
       <c r="T14">
-        <v>6.217581274288172E-06</v>
+        <v>0.004694869467713083</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.273094333333334</v>
+        <v>4.896139</v>
       </c>
       <c r="H15">
-        <v>15.819283</v>
+        <v>14.688417</v>
       </c>
       <c r="I15">
-        <v>0.02572836630662366</v>
+        <v>0.02331981853689061</v>
       </c>
       <c r="J15">
-        <v>0.02572836630662366</v>
+        <v>0.02331981853689062</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9921066666666668</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N15">
-        <v>2.97632</v>
+        <v>26.424676</v>
       </c>
       <c r="O15">
-        <v>0.0788408337623728</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P15">
-        <v>0.07884083376237279</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q15">
-        <v>5.231472042062223</v>
+        <v>43.12629557532133</v>
       </c>
       <c r="R15">
-        <v>47.08324837856001</v>
+        <v>388.1366601778919</v>
       </c>
       <c r="S15">
-        <v>0.002028445850957949</v>
+        <v>0.01625249164931868</v>
       </c>
       <c r="T15">
-        <v>0.002028445850957949</v>
+        <v>0.01625249164931868</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.273094333333334</v>
+        <v>4.896139</v>
       </c>
       <c r="H16">
-        <v>15.819283</v>
+        <v>14.688417</v>
       </c>
       <c r="I16">
-        <v>0.02572836630662366</v>
+        <v>0.02331981853689061</v>
       </c>
       <c r="J16">
-        <v>0.02572836630662366</v>
+        <v>0.02331981853689062</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.003928</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N16">
-        <v>0.011784</v>
+        <v>3.821749</v>
       </c>
       <c r="O16">
-        <v>0.0003121507045800858</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P16">
-        <v>0.0003121507045800858</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q16">
-        <v>0.02071271454133334</v>
+        <v>6.237271442370334</v>
       </c>
       <c r="R16">
-        <v>0.186414430872</v>
+        <v>56.135442981333</v>
       </c>
       <c r="S16">
-        <v>8.031127670307115E-06</v>
+        <v>0.002350565952380722</v>
       </c>
       <c r="T16">
-        <v>8.031127670307116E-06</v>
+        <v>0.002350565952380723</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.714833666666667</v>
+        <v>4.896139</v>
       </c>
       <c r="H17">
-        <v>8.144501</v>
+        <v>14.688417</v>
       </c>
       <c r="I17">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689061</v>
       </c>
       <c r="J17">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689062</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.776364333333333</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N17">
-        <v>8.329093</v>
+        <v>0.035593</v>
       </c>
       <c r="O17">
-        <v>0.2206324039768381</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P17">
-        <v>0.2206324039768381</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q17">
-        <v>7.53736736306589</v>
+        <v>0.05808942514233333</v>
       </c>
       <c r="R17">
-        <v>67.836306267593</v>
+        <v>0.522804826281</v>
       </c>
       <c r="S17">
-        <v>0.002922531446565841</v>
+        <v>2.189146747813293E-05</v>
       </c>
       <c r="T17">
-        <v>0.00292253144656584</v>
+        <v>2.189146747813293E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.714833666666667</v>
+        <v>8.427551666666668</v>
       </c>
       <c r="H18">
-        <v>8.144501</v>
+        <v>25.282655</v>
       </c>
       <c r="I18">
-        <v>0.01324615692839319</v>
+        <v>0.04013958255207557</v>
       </c>
       <c r="J18">
-        <v>0.01324615692839319</v>
+        <v>0.04013958255207558</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.808225333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N18">
-        <v>26.424676</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O18">
-        <v>0.6999729490580858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P18">
-        <v>0.6999729490580857</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q18">
-        <v>23.91286667851956</v>
+        <v>21.44338832599778</v>
       </c>
       <c r="R18">
-        <v>215.215800106676</v>
+        <v>192.99049493398</v>
       </c>
       <c r="S18">
-        <v>0.009271951528853579</v>
+        <v>0.008081113507481677</v>
       </c>
       <c r="T18">
-        <v>0.009271951528853578</v>
+        <v>0.008081113507481681</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.714833666666667</v>
+        <v>8.427551666666668</v>
       </c>
       <c r="H19">
-        <v>8.144501</v>
+        <v>25.282655</v>
       </c>
       <c r="I19">
-        <v>0.01324615692839319</v>
+        <v>0.04013958255207557</v>
       </c>
       <c r="J19">
-        <v>0.01324615692839319</v>
+        <v>0.04013958255207558</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.003041</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N19">
-        <v>0.009123000000000001</v>
+        <v>26.424676</v>
       </c>
       <c r="O19">
-        <v>0.0002416624981232284</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P19">
-        <v>0.0002416624981232283</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q19">
-        <v>0.008255809180333334</v>
+        <v>74.2317740883089</v>
       </c>
       <c r="R19">
-        <v>0.07430228262300001</v>
+        <v>668.08596679478</v>
       </c>
       <c r="S19">
-        <v>3.201099373847809E-06</v>
+        <v>0.02797484162249105</v>
       </c>
       <c r="T19">
-        <v>3.201099373847808E-06</v>
+        <v>0.02797484162249106</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.714833666666667</v>
+        <v>8.427551666666668</v>
       </c>
       <c r="H20">
-        <v>8.144501</v>
+        <v>25.282655</v>
       </c>
       <c r="I20">
-        <v>0.01324615692839319</v>
+        <v>0.04013958255207557</v>
       </c>
       <c r="J20">
-        <v>0.01324615692839319</v>
+        <v>0.04013958255207558</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9921066666666668</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N20">
-        <v>2.97632</v>
+        <v>3.821749</v>
       </c>
       <c r="O20">
-        <v>0.0788408337623728</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P20">
-        <v>0.07884083376237279</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q20">
-        <v>2.693404579591112</v>
+        <v>10.73599571817723</v>
       </c>
       <c r="R20">
-        <v>24.24064121632</v>
+        <v>96.62396146359501</v>
       </c>
       <c r="S20">
-        <v>0.001044338056381751</v>
+        <v>0.004045946409935682</v>
       </c>
       <c r="T20">
-        <v>0.00104433805638175</v>
+        <v>0.004045946409935683</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.714833666666667</v>
+        <v>8.427551666666668</v>
       </c>
       <c r="H21">
-        <v>8.144501</v>
+        <v>25.282655</v>
       </c>
       <c r="I21">
-        <v>0.01324615692839319</v>
+        <v>0.04013958255207557</v>
       </c>
       <c r="J21">
-        <v>0.01324615692839319</v>
+        <v>0.04013958255207558</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.003928</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N21">
-        <v>0.011784</v>
+        <v>0.035593</v>
       </c>
       <c r="O21">
-        <v>0.0003121507045800858</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P21">
-        <v>0.0003121507045800858</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q21">
-        <v>0.01066386664266667</v>
+        <v>0.09998728215722223</v>
       </c>
       <c r="R21">
-        <v>0.095974799784</v>
+        <v>0.899885539415</v>
       </c>
       <c r="S21">
-        <v>4.134797218176321E-06</v>
+        <v>3.768101216716239E-05</v>
       </c>
       <c r="T21">
-        <v>4.134797218176321E-06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>5.714610333333333</v>
-      </c>
-      <c r="H22">
-        <v>17.143831</v>
-      </c>
-      <c r="I22">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="J22">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.776364333333333</v>
-      </c>
-      <c r="N22">
-        <v>8.329093</v>
-      </c>
-      <c r="O22">
-        <v>0.2206324039768381</v>
-      </c>
-      <c r="P22">
-        <v>0.2206324039768381</v>
-      </c>
-      <c r="Q22">
-        <v>15.86584030836478</v>
-      </c>
-      <c r="R22">
-        <v>142.792562775283</v>
-      </c>
-      <c r="S22">
-        <v>0.006151805397544957</v>
-      </c>
-      <c r="T22">
-        <v>0.006151805397544957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>5.714610333333333</v>
-      </c>
-      <c r="H23">
-        <v>17.143831</v>
-      </c>
-      <c r="I23">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="J23">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>8.808225333333333</v>
-      </c>
-      <c r="N23">
-        <v>26.424676</v>
-      </c>
-      <c r="O23">
-        <v>0.6999729490580858</v>
-      </c>
-      <c r="P23">
-        <v>0.6999729490580857</v>
-      </c>
-      <c r="Q23">
-        <v>50.33557550819511</v>
-      </c>
-      <c r="R23">
-        <v>453.0201795737559</v>
-      </c>
-      <c r="S23">
-        <v>0.01951706679769054</v>
-      </c>
-      <c r="T23">
-        <v>0.01951706679769054</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>5.714610333333333</v>
-      </c>
-      <c r="H24">
-        <v>17.143831</v>
-      </c>
-      <c r="I24">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="J24">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.003041</v>
-      </c>
-      <c r="N24">
-        <v>0.009123000000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.0002416624981232284</v>
-      </c>
-      <c r="P24">
-        <v>0.0002416624981232283</v>
-      </c>
-      <c r="Q24">
-        <v>0.01737813002366667</v>
-      </c>
-      <c r="R24">
-        <v>0.156403170213</v>
-      </c>
-      <c r="S24">
-        <v>6.738179132085888E-06</v>
-      </c>
-      <c r="T24">
-        <v>6.738179132085888E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.714610333333333</v>
-      </c>
-      <c r="H25">
-        <v>17.143831</v>
-      </c>
-      <c r="I25">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="J25">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.9921066666666668</v>
-      </c>
-      <c r="N25">
-        <v>2.97632</v>
-      </c>
-      <c r="O25">
-        <v>0.0788408337623728</v>
-      </c>
-      <c r="P25">
-        <v>0.07884083376237279</v>
-      </c>
-      <c r="Q25">
-        <v>5.669503009102223</v>
-      </c>
-      <c r="R25">
-        <v>51.02552708192</v>
-      </c>
-      <c r="S25">
-        <v>0.002198287549535227</v>
-      </c>
-      <c r="T25">
-        <v>0.002198287549535226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>5.714610333333333</v>
-      </c>
-      <c r="H26">
-        <v>17.143831</v>
-      </c>
-      <c r="I26">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="J26">
-        <v>0.02788260149760581</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.003928</v>
-      </c>
-      <c r="N26">
-        <v>0.011784</v>
-      </c>
-      <c r="O26">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="P26">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="Q26">
-        <v>0.02244698938933333</v>
-      </c>
-      <c r="R26">
-        <v>0.202022904504</v>
-      </c>
-      <c r="S26">
-        <v>8.703573703003409E-06</v>
-      </c>
-      <c r="T26">
-        <v>8.703573703003409E-06</v>
+        <v>3.76810121671624E-05</v>
       </c>
     </row>
   </sheetData>
